--- a/public/documents/workflows.xlsx
+++ b/public/documents/workflows.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tesisdss\public\workflows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tesisdss\public\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -461,14 +461,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:D28"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,20 +767,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
@@ -953,11 +953,11 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
@@ -1173,7 +1173,7 @@
   <dimension ref="B2:E41"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,20 +1185,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
@@ -1361,11 +1361,11 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
@@ -1569,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,20 +1584,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
@@ -1738,11 +1738,11 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
@@ -1888,7 +1888,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="8"/>
+      <c r="B38" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1906,7 +1906,7 @@
   <dimension ref="B2:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1920,20 +1920,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
@@ -2106,11 +2106,11 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
@@ -2303,8 +2303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2318,20 +2318,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
@@ -2464,14 +2464,14 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">

--- a/public/documents/workflows.xlsx
+++ b/public/documents/workflows.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725" tabRatio="683" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Libración Cred. Hab." sheetId="2" r:id="rId1"/>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,7 +1173,7 @@
   <dimension ref="B2:E41"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2303,8 +2303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
